--- a/BOM-nixieAccurateClock.xlsx
+++ b/BOM-nixieAccurateClock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C84361-CA6C-44EE-8022-2CA92D6F7E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175D27D-244A-4589-A467-8792F1106101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="282">
   <si>
     <t>Price</t>
   </si>
@@ -175,18 +175,12 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\KiCad\nixieAccurateClock\nixieAccurateClock.kicad_sch</t>
-  </si>
-  <si>
     <t>BT1</t>
   </si>
   <si>
     <t>Battery_Cell</t>
   </si>
   <si>
-    <t>C1, C2, C3, C6, C14, C17</t>
-  </si>
-  <si>
     <t>C4, C7, C8, C9, C11, C13, C15</t>
   </si>
   <si>
@@ -205,36 +199,15 @@
     <t>1n</t>
   </si>
   <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
     <t>D1, D2, D3</t>
   </si>
   <si>
     <t>SM4004</t>
   </si>
   <si>
-    <t>J1, J2, J6, J7, J8</t>
-  </si>
-  <si>
     <t>Conn_01x02_Pin</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
@@ -385,24 +358,15 @@
     <t>LM51561HPWPR</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>U13</t>
   </si>
   <si>
     <t>ADC0820BCWMX</t>
   </si>
   <si>
-    <t>U14</t>
-  </si>
-  <si>
     <t>TXB0108PWR</t>
   </si>
   <si>
-    <t>U15</t>
-  </si>
-  <si>
     <t>Device:Battery_Cell</t>
   </si>
   <si>
@@ -433,15 +397,6 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C102K5RACTU</t>
   </si>
   <si>
-    <t>:C_Small_4</t>
-  </si>
-  <si>
-    <t>:C_Small_2</t>
-  </si>
-  <si>
-    <t>:C_Small_3</t>
-  </si>
-  <si>
     <t>Diode:SM4004</t>
   </si>
   <si>
@@ -460,12 +415,6 @@
     <t>https://app.adam-tech.com/products/download/data_sheet/201605/ph1-xx-ua-data-sheet.pdf</t>
   </si>
   <si>
-    <t>:Conn_01x02_Pin_1</t>
-  </si>
-  <si>
-    <t>:Conn_01x02_Pin_2</t>
-  </si>
-  <si>
     <t>Connector:Conn_Coaxial</t>
   </si>
   <si>
@@ -562,9 +511,6 @@
     <t>00_lib:pico iCE</t>
   </si>
   <si>
-    <t>https://pico-ice.tinyvision.ai/</t>
-  </si>
-  <si>
     <t>00_lib:LTR-329ALS-01</t>
   </si>
   <si>
@@ -613,9 +559,6 @@
     <t>http://www.ti.com/lit/ds/symlink/txb0108.pdf</t>
   </si>
   <si>
-    <t>:TXB0108PWR_1</t>
-  </si>
-  <si>
     <t>CL10A105KA8NNNC</t>
   </si>
   <si>
@@ -689,6 +632,252 @@
   </si>
   <si>
     <t>U7, U8, U9, U10, U11, U12</t>
+  </si>
+  <si>
+    <t>KiCad\nixieAccurateClock\nixieAccurateClock.kicad_sch</t>
+  </si>
+  <si>
+    <t>U14, U15</t>
+  </si>
+  <si>
+    <t>Digikey link</t>
+  </si>
+  <si>
+    <t>Mouser link</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/103/36-103-ND/331620</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Keystone-Electronics/103?qs=Q3RoVmURDolsdXuDGYj49g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/tinyvision-ai-inc/pico-ice/main/Board/Rev3/pico-ice.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10B104KB8NNWC?qs=EvNa9vf1TdYOAZGBJN%252BGRQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KB8NNWC/3887593</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPPC052LFBN-RC/810245</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC1206JR-0733KL?qs=4sq2y2bXwtTBbhYRyjZ6aQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC1206JR-0733KL/729282</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/HV509K6-G/4902492</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Microchip-Technology/HV509K6-G?qs=073BFnXyqnuDeexnfjhPaQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10A105KA8NNNC/3886760</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10A105KA8NNNC?qs=hqM3L16%252BxldY%252BnK4KzDJVg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Nichicon/UVC2G100MPD1TD?qs=dHDuPHwQO7%2FySlLjjH7nrA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nichicon/UVC2G100MPD1TD/4312415</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0603C102K5RAC7867/411081</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/C0603C102K5RAC7867?qs=ASQIQ%252BJnMNGuy6cWhiGfpA%3D%3D</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J6, J7, J8</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C6, C14, C16, C17, C18, C19, C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP23008-E/SO </t>
+  </si>
+  <si>
+    <t>LM51561H</t>
+  </si>
+  <si>
+    <t>TXB0108</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/diotec-semiconductor/SM4004/13155357</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/SM4004?qs=OlC7AqGiEDkXkiBPoivHAA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adam-tech/PH1-02-UA/9830266</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samtec/TSW-102-07-G-S?qs=iT52DjcXudsNPhlNCDp8vw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Amphenol-RF/132289?qs=nhkRCwpTkeb9ti20UXE5Cg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/amphenol-rf/132289/1989875</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/SFH11-PBPC-D05-RA-BK/1990095</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/VLS6045EX-150M/5286690</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TDK/VLS6045EX-150M?qs=oF%2FSscNnLpDh4m%2FVdQ%2FgKQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Coilcraft/MSS1583-824KED?qs=ZYnrCdKdyec3W9zOa1ZiwA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/infineon-technologies/BSP88H6327XTSA1/5959955</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Infineon-Technologies/BSP88H6327XTSA1?qs=LqwxS8kK3AsxJVC%2FVRfDmg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-074K7L?qs=%2F9ZTgpVJnN7SlR9TL5EAvw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-074K7L/726785</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT62K0/1714175</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ERJ-3GEYJ623V?qs=JjxTDIFmKPS6xQUYaPwfBA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0727KL/727100</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0727KL?qs=HhmREhdzqomUcJ5okwKG7g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/WSLP0603R0400FEB/2695094</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Dale/WSLP0603R0400FEB?qs=%2FCIfAsUrYSUeZEuc8AwYZQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-07100KL/726698</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-07100KL?qs=2cAdsCoAWRG9Rhqklpdeqg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-07470RL/726791</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-07470RL?qs=%2F9ZTgpVJnN7OKFv8ihIyYQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT10M0/1761206</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/RMCF0603FT10M0?qs=FESYatJ8odIf0bWpBT4vKw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-071KL/726843</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-071KL?qs=VU8sRB4EgwApHsk4rF%2F3zg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT220K/1760805</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/RMCF0603FT220K?qs=FESYatJ8odJJvj8gHJIXpQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603JR-072M7L/726736</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603JR-072M7L?qs=IuGqVx9wL0I5aWOMNpADkw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0710KL/726880</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0710KL?qs=grNVn54RoB%252B3GtjbJj3wJQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-071K5L/726864</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-071K5L?qs=VU8sRB4EgwBMt9nc4XGNgA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/RMCF0603FT1M00?qs=FESYatJ8odJNClY0wUC1cg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT1M00/1761036</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/ROX5SSJ10K?qs=gZXFycFWdAPK2TCKEiyMYg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/ROX5SSJ10K/9926250</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/3266Z-1-104LF/3722105</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/3266Z-1-104LF?qs=%252B8v4bwhISUIlrQ43joPBoQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-alcoswitch-switches/1825057-7/969176</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-PB/ADE0804?qs=k5V78Jg%2Feq6GvBeNB1YtWA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/5001/255327</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Keystone-Electronics/5001?qs=q0tsjPZWdm%2FW0vdr%2FwowKg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP23008-E-SO?qs=Sez7gRs8XSWum74ZwQXTLw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/MCP23008-E-SO/735952?s=N4IgTCBcDaILIGEAKYDMAGdAOAtAUQHoBlAeQAIQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/liteon/LTR-329ALS-01/4847334</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Lite-On/LTR-329ALS-01?qs=Ml%2FaxAEbwm8eHg8LIDPUrw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM51561HPWPR/13283334</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/LM51561HPWPR?qs=zW32dvEIR3sIsgYNjaIZmQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/ADC0820BCWMX-NOPB/366281</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/ADC0820BCWMX-NOPB?qs=7X5t%252BdzoRHBt6RLxd4fqnA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/TXB0108PWR/1305699</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TXB0108PWR?qs=oFXvjAmG9EgEUWGWzOVFCA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -698,10 +887,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -724,15 +921,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1045,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59D120-68A1-4021-9F61-63CF243C8D9C}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,17 +1259,18 @@
     <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63.734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="84.47265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1278,7 @@
         <v>45304.804212962961</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1101,12 +1302,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1140,8 +1341,14 @@
       <c r="K9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1149,40 +1356,46 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
       </c>
       <c r="E10">
         <v>103</v>
       </c>
       <c r="G10" s="1">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="H10" s="1">
         <f>B10*G10</f>
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>112</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1194,20 +1407,26 @@
         <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <f>B11*G11</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="H11:H46" si="0">B11*G11</f>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1215,32 +1434,38 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
       </c>
       <c r="H12" s="1">
-        <f>B12*G12</f>
+        <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1248,32 +1473,38 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G13" s="1">
         <v>1.03</v>
       </c>
       <c r="H13" s="1">
-        <f>B13*G13</f>
+        <f t="shared" si="0"/>
         <v>2.06</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1281,98 +1512,113 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
       </c>
       <c r="H14" s="1">
-        <f>B14*G14</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H10:H14)</f>
-        <v>4.96</v>
+        <f t="shared" si="0"/>
+        <v>0.81</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:H53" si="0">B16*G16</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1380,32 +1626,38 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
+      <c r="E17">
+        <v>132289</v>
       </c>
       <c r="G17" s="1">
-        <v>0.1</v>
+        <v>7.55</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>7.55</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1416,194 +1668,230 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1">
-        <v>0.1</v>
+        <v>0.81</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.81</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="G19" s="1">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>0.38</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G20" s="1">
-        <v>0.1</v>
+        <v>4.07</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>4.07</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1">
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>2.75</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
         <v>140</v>
       </c>
-      <c r="K22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>14</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23">
-        <v>132289</v>
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
       </c>
       <c r="G23" s="1">
-        <v>7.55</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>7.55</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1611,164 +1899,194 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G24" s="1">
-        <v>0.81</v>
+        <v>0.1</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>0.41</v>
+        <v>1.48</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4.07</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>4.07</v>
-      </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>18</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="G27" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G28" s="1">
         <v>0.1</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="s">
         <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1776,13 +2094,13 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G29" s="1">
         <v>0.1</v>
@@ -1795,13 +2113,19 @@
         <v>35</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1809,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G30" s="1">
         <v>0.1</v>
@@ -1828,79 +2152,97 @@
         <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>22</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G31" s="1">
-        <v>0.74</v>
+        <v>0.1</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>1.48</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="s">
         <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>23</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G32" s="1">
         <v>0.1</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I32" t="s">
         <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
-      </c>
-      <c r="K32" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>24</v>
       </c>
@@ -1908,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33">
-        <v>470</v>
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -1927,79 +2269,97 @@
         <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
-      </c>
-      <c r="K33" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L33" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>25</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G34" s="1">
         <v>0.1</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I34" t="s">
         <v>35</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
-      </c>
-      <c r="K34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>26</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G35" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I35" t="s">
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
-      </c>
-      <c r="K35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>143</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>27</v>
       </c>
@@ -2007,32 +2367,38 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G36" s="1">
-        <v>0.1</v>
+        <v>2.13</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>2.13</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
-      </c>
-      <c r="K36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>146</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>28</v>
       </c>
@@ -2040,65 +2406,77 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G37" s="1">
-        <v>0.1</v>
+        <v>1.75</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1.75</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
-      </c>
-      <c r="K37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>149</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>29</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>211</v>
+        <v>98</v>
+      </c>
+      <c r="E38">
+        <v>5001</v>
       </c>
       <c r="G38" s="1">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>7.6</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="J38" t="s">
-        <v>157</v>
-      </c>
-      <c r="K38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>152</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>30</v>
       </c>
@@ -2106,32 +2484,38 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G39" s="1">
-        <v>0.1</v>
+        <v>1.37</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>1.37</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>155</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>31</v>
       </c>
@@ -2141,30 +2525,33 @@
       <c r="C40" t="s">
         <v>100</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>101</v>
       </c>
-      <c r="E40" t="s">
-        <v>213</v>
-      </c>
       <c r="G40" s="1">
-        <v>0.1</v>
+        <v>35</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
-      </c>
-      <c r="K40" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="K40" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L40" t="s">
+        <v>210</v>
+      </c>
+      <c r="M40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>32</v>
       </c>
@@ -2174,30 +2561,33 @@
       <c r="C41" t="s">
         <v>102</v>
       </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="G41" s="1">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L41" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>33</v>
       </c>
@@ -2205,98 +2595,105 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="G42" s="1">
-        <v>4.2</v>
+        <v>27.8</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>27.8</v>
       </c>
       <c r="I42" t="s">
         <v>162</v>
       </c>
       <c r="J42" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L42" t="s">
+        <v>210</v>
+      </c>
+      <c r="M42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>34</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="G43" s="1">
-        <v>1.75</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="I43" t="s">
+        <v>164</v>
+      </c>
+      <c r="J43" t="s">
         <v>165</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L43" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>35</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44">
-        <v>5001</v>
+        <v>199</v>
       </c>
       <c r="G44" s="1">
-        <v>0.38</v>
+        <f>'IN-14 daughter board'!H15</f>
+        <v>21.300000000000004</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>127.80000000000003</v>
       </c>
       <c r="I44" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" t="s">
         <v>168</v>
       </c>
-      <c r="J44" t="s">
-        <v>169</v>
-      </c>
-      <c r="K44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L44" t="s">
+        <v>210</v>
+      </c>
+      <c r="M44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>36</v>
       </c>
@@ -2304,295 +2701,196 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>198</v>
       </c>
       <c r="G45" s="1">
-        <v>1.37</v>
+        <v>5.93</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>1.37</v>
+        <v>5.93</v>
       </c>
       <c r="I45" t="s">
+        <v>169</v>
+      </c>
+      <c r="J45" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J45" t="s">
-        <v>172</v>
-      </c>
-      <c r="K45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L45" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>37</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" t="s">
         <v>110</v>
       </c>
       <c r="G46" s="1">
-        <v>35</v>
+        <v>1.65</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J46" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J46" t="s">
-        <v>175</v>
-      </c>
-      <c r="K46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>38</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.97</v>
-      </c>
+      <c r="L46" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="I47" t="s">
-        <v>177</v>
-      </c>
-      <c r="J47" t="s">
-        <v>178</v>
-      </c>
-      <c r="K47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>39</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="0"/>
-        <v>27.8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" t="s">
-        <v>180</v>
-      </c>
-      <c r="K48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>40</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="I49" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" t="s">
-        <v>183</v>
-      </c>
-      <c r="K49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>41</v>
-      </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="1">
-        <v>21.41</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="0"/>
-        <v>128.46</v>
-      </c>
-      <c r="I50" t="s">
-        <v>185</v>
-      </c>
-      <c r="J50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>42</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" t="s">
-        <v>217</v>
-      </c>
-      <c r="G51" s="1">
-        <v>5.93</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="0"/>
-        <v>5.93</v>
-      </c>
-      <c r="I51" t="s">
-        <v>187</v>
-      </c>
-      <c r="J51" t="s">
-        <v>188</v>
-      </c>
-      <c r="K51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>43</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="0"/>
-        <v>1.65</v>
-      </c>
-      <c r="I52" t="s">
-        <v>190</v>
-      </c>
-      <c r="J52" t="s">
-        <v>191</v>
-      </c>
-      <c r="K52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>44</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="0"/>
-        <v>1.65</v>
-      </c>
-      <c r="I53" t="s">
-        <v>193</v>
-      </c>
-      <c r="J53" t="s">
-        <v>191</v>
-      </c>
-      <c r="K53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H54" s="1">
-        <f>SUM(H10:H53)</f>
-        <v>253.29000000000002</v>
+        <f>SUM(H10:H46)</f>
+        <v>245.14000000000004</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1" xr:uid="{52055F7B-F867-4C06-B49F-E98FE177A9C3}"/>
+    <hyperlink ref="L10" r:id="rId2" xr:uid="{32DD860B-0D25-41A8-B45F-620BF571B7EF}"/>
+    <hyperlink ref="K10" r:id="rId3" xr:uid="{A884858E-62CD-4FB2-97B4-48AA96853709}"/>
+    <hyperlink ref="K11" r:id="rId4" xr:uid="{30849B63-5DFB-4FF8-AA90-EDBCB7F355C6}"/>
+    <hyperlink ref="K12" r:id="rId5" xr:uid="{911163BE-E3A2-4862-840B-AF5B40D67757}"/>
+    <hyperlink ref="K13" r:id="rId6" xr:uid="{8DB281CC-6A41-494A-9B6E-E4A9BED5E754}"/>
+    <hyperlink ref="K14" r:id="rId7" xr:uid="{65C6540D-30FC-4B4F-A22F-8670B7194291}"/>
+    <hyperlink ref="K15" r:id="rId8" xr:uid="{E6679EDE-D675-4BAD-BD11-BC50E2846C59}"/>
+    <hyperlink ref="K16" r:id="rId9" xr:uid="{32250F5F-EA82-4439-9D79-428F71D373D6}"/>
+    <hyperlink ref="K17" r:id="rId10" xr:uid="{12905229-3462-4690-A451-155B4DDCD07C}"/>
+    <hyperlink ref="K18" r:id="rId11" xr:uid="{CBC3112E-2810-4196-9C9E-E215A1DDB6CB}"/>
+    <hyperlink ref="K19" r:id="rId12" xr:uid="{853FF62B-071E-49B8-A71A-C2E36B7BC118}"/>
+    <hyperlink ref="K20" r:id="rId13" xr:uid="{5FF8CDF0-D709-4A80-B203-E92720EEB9C6}"/>
+    <hyperlink ref="K21" r:id="rId14" xr:uid="{FDFFE93C-18E8-49DC-9BCA-C720971A63BB}"/>
+    <hyperlink ref="K22" r:id="rId15" xr:uid="{2E46C509-30C2-429C-B4D4-5FD176C575EF}"/>
+    <hyperlink ref="K23" r:id="rId16" xr:uid="{662E41B8-9C37-4ACA-9776-A1D735AD9249}"/>
+    <hyperlink ref="K24" r:id="rId17" xr:uid="{BF01B485-838E-4770-8E0A-47B504B81659}"/>
+    <hyperlink ref="K25" r:id="rId18" xr:uid="{71A369AB-FDD7-474B-9DE6-DD8923AD618C}"/>
+    <hyperlink ref="K26" r:id="rId19" xr:uid="{69D1FD46-15EC-4B79-AC14-668CDF01FE75}"/>
+    <hyperlink ref="K27" r:id="rId20" xr:uid="{3C0ABA83-8FD1-4DD6-9F08-8CB8836D77A8}"/>
+    <hyperlink ref="K28" r:id="rId21" xr:uid="{992064C8-311C-434E-957B-0C7E337431BC}"/>
+    <hyperlink ref="K29" r:id="rId22" xr:uid="{22373AB4-4588-4402-AA30-B349F9C5DDB9}"/>
+    <hyperlink ref="K30" r:id="rId23" xr:uid="{95485FC1-5F10-416F-9396-E6976A6EDC8F}"/>
+    <hyperlink ref="K31" r:id="rId24" xr:uid="{E4292354-502B-45F9-A304-251A04459BAE}"/>
+    <hyperlink ref="K32" r:id="rId25" xr:uid="{72F7D182-18D9-4E1B-AD94-395E3A2EB9D6}"/>
+    <hyperlink ref="K33" r:id="rId26" xr:uid="{89A9946B-7402-4B4F-90FC-10C4EB8D086F}"/>
+    <hyperlink ref="K34" r:id="rId27" xr:uid="{6857AE40-8AAC-4A02-87B6-9C978FFC9A14}"/>
+    <hyperlink ref="K35" r:id="rId28" xr:uid="{C8623058-F388-45EE-8A3C-9C093E357158}"/>
+    <hyperlink ref="K36" r:id="rId29" xr:uid="{1D0A4DC5-DD54-4498-A450-CDB0A0557A5B}"/>
+    <hyperlink ref="K37" r:id="rId30" xr:uid="{00B78B5F-B3DA-4DA7-9A6F-9A2C08971A33}"/>
+    <hyperlink ref="K38" r:id="rId31" xr:uid="{87B07FC1-3ADF-41FF-8422-0B4C76305ED0}"/>
+    <hyperlink ref="K39" r:id="rId32" xr:uid="{891CC337-7E72-4AE9-BA38-E39C03AA8F84}"/>
+    <hyperlink ref="K40" r:id="rId33" xr:uid="{858E6891-0EB8-4BDF-98E6-14A58CF9D7CC}"/>
+    <hyperlink ref="K41" r:id="rId34" xr:uid="{87BCA307-5903-4EF9-A476-F7984D47868D}"/>
+    <hyperlink ref="K42" r:id="rId35" xr:uid="{00FE798E-B61C-4545-9C03-6BB05718EB6B}"/>
+    <hyperlink ref="K43" r:id="rId36" xr:uid="{7318651F-2E72-47E4-9D1E-65C045076DCD}"/>
+    <hyperlink ref="K45" r:id="rId37" xr:uid="{1CFFC5B3-FEFD-447F-A7B1-8339B60B7DB2}"/>
+    <hyperlink ref="K46" r:id="rId38" xr:uid="{2FE8A273-16B0-4541-B858-134D502F2E3F}"/>
+    <hyperlink ref="L11" r:id="rId39" xr:uid="{83F2DAAF-C74D-4630-93FA-AFC302A76EC4}"/>
+    <hyperlink ref="M11" r:id="rId40" xr:uid="{C3F1EC53-F252-4745-B0F4-D31F86A64BED}"/>
+    <hyperlink ref="L12" r:id="rId41" xr:uid="{D0AD0607-2B65-4DF3-A916-BC9874879803}"/>
+    <hyperlink ref="M12" r:id="rId42" xr:uid="{521A1603-826D-45C5-804F-205559DAEFFA}"/>
+    <hyperlink ref="M13" r:id="rId43" xr:uid="{D2613EEB-1094-48C5-BC35-6DF5E70C0F2E}"/>
+    <hyperlink ref="L13" r:id="rId44" xr:uid="{8C835789-FE01-497F-BAD0-6BF0CCFF2B0D}"/>
+    <hyperlink ref="L14" r:id="rId45" xr:uid="{DBF789C8-6D37-4E09-B19C-95A5EB62A19C}"/>
+    <hyperlink ref="M14" r:id="rId46" xr:uid="{CDF4E1AF-51C3-4662-84D5-478696594EF5}"/>
+    <hyperlink ref="L15" r:id="rId47" xr:uid="{24AB3A9D-CA30-4143-B907-B09D66E9AF63}"/>
+    <hyperlink ref="M15" r:id="rId48" xr:uid="{BEFC379F-047F-4FFB-A431-85F606CFA79A}"/>
+    <hyperlink ref="L16" r:id="rId49" xr:uid="{00DC7A75-D443-4E11-9D8B-3C284F771698}"/>
+    <hyperlink ref="M16" r:id="rId50" xr:uid="{59D92369-C1D6-4173-9519-B2E608333258}"/>
+    <hyperlink ref="M17" r:id="rId51" xr:uid="{E1819364-982B-4C1A-9333-0CFFA3A4532B}"/>
+    <hyperlink ref="L17" r:id="rId52" xr:uid="{28A44ACA-9680-4B4A-A176-7BF48D854C09}"/>
+    <hyperlink ref="L18" r:id="rId53" xr:uid="{A7E09E09-DFB8-4492-BE45-E432B23528C2}"/>
+    <hyperlink ref="L19" r:id="rId54" xr:uid="{C42F5A03-330C-4365-BC20-4F87ED2AA0DC}"/>
+    <hyperlink ref="M19" r:id="rId55" xr:uid="{8CD6C0BE-1BC1-42F7-96F2-2961A615899B}"/>
+    <hyperlink ref="M20" r:id="rId56" xr:uid="{9F324829-3A4B-4DE0-A177-EDAE21E4EE58}"/>
+    <hyperlink ref="L21" r:id="rId57" xr:uid="{C848878F-F85B-4061-AC40-93017B6EA7A1}"/>
+    <hyperlink ref="M21" r:id="rId58" xr:uid="{4326B2A4-88D6-45B6-9300-FFCC0C9AA16E}"/>
+    <hyperlink ref="M22" r:id="rId59" xr:uid="{BB9792AD-1FF1-4F84-B698-6C1271FA525A}"/>
+    <hyperlink ref="L22" r:id="rId60" xr:uid="{64B4030E-800F-4220-BFE6-6A0B8E54754F}"/>
+    <hyperlink ref="L23" r:id="rId61" xr:uid="{FBF113F1-DDB9-43E5-B31C-9E02818DD53C}"/>
+    <hyperlink ref="M23" r:id="rId62" xr:uid="{9E3FD796-6AE1-411E-B485-FDA7EF288EF8}"/>
+    <hyperlink ref="L24" r:id="rId63" xr:uid="{FAE2F2C9-2AD0-4D08-9265-5F2D4E5FBDF8}"/>
+    <hyperlink ref="M24" r:id="rId64" xr:uid="{54BBB950-8155-4D84-9F76-A833915F2130}"/>
+    <hyperlink ref="L25" r:id="rId65" xr:uid="{55C29A11-1A63-4B6D-9977-C5DADC240A11}"/>
+    <hyperlink ref="M25" r:id="rId66" xr:uid="{4EF36E81-B44B-4B23-802F-AC99261D86F8}"/>
+    <hyperlink ref="L26" r:id="rId67" xr:uid="{A184DE7D-A101-454C-A450-EA68B6BC2755}"/>
+    <hyperlink ref="M26" r:id="rId68" xr:uid="{E6B3A5EF-13AD-4F02-9494-7C6755B1C9E8}"/>
+    <hyperlink ref="L27" r:id="rId69" xr:uid="{09857FD7-E828-4B72-8467-973FC7527E5D}"/>
+    <hyperlink ref="M27" r:id="rId70" xr:uid="{51C19C22-0E2F-43A1-90BE-1080917E2CC2}"/>
+    <hyperlink ref="L28" r:id="rId71" xr:uid="{201CAFCB-5B50-43D0-A15C-C3AD2E29FB3B}"/>
+    <hyperlink ref="M28" r:id="rId72" xr:uid="{F125B816-670C-4692-B04B-238104B4F0C9}"/>
+    <hyperlink ref="L29" r:id="rId73" xr:uid="{C4F879A0-0CA3-48E7-9802-DA1F674F7E30}"/>
+    <hyperlink ref="M29" r:id="rId74" xr:uid="{318A231B-8619-4449-A194-731C325A2339}"/>
+    <hyperlink ref="L30" r:id="rId75" xr:uid="{6BA9DF11-C5CC-41C1-A964-D6D8FD5236B9}"/>
+    <hyperlink ref="M30" r:id="rId76" xr:uid="{60EAF62B-6C43-460C-9F47-C2E6A5D1DCDF}"/>
+    <hyperlink ref="L31" r:id="rId77" xr:uid="{35570DBF-4F26-4190-B0D1-B45DF37132EC}"/>
+    <hyperlink ref="M31" r:id="rId78" xr:uid="{CE2D46AC-22F0-43B3-BAA4-95FA1F8BC038}"/>
+    <hyperlink ref="L32" r:id="rId79" xr:uid="{1E0A36F1-1DAE-4DBE-80CF-9264CC018C94}"/>
+    <hyperlink ref="M32" r:id="rId80" xr:uid="{56C3A163-6E0C-4A49-80FF-9DBC61C4B068}"/>
+    <hyperlink ref="L33" r:id="rId81" xr:uid="{68CF98D2-968C-4883-9363-0E34B28CD634}"/>
+    <hyperlink ref="M33" r:id="rId82" xr:uid="{2890F52C-EDDF-4FEC-B86C-036D5A079D0A}"/>
+    <hyperlink ref="M34" r:id="rId83" xr:uid="{C5DAD6FC-2173-407B-969E-3A6703606A2D}"/>
+    <hyperlink ref="L34" r:id="rId84" xr:uid="{75F3F402-9A9F-427F-840E-87A8596C6BB4}"/>
+    <hyperlink ref="M35" r:id="rId85" xr:uid="{38034CEF-1506-47E7-88B9-CAA5EA5B4D30}"/>
+    <hyperlink ref="L35" r:id="rId86" xr:uid="{8447B582-33EA-458F-845C-FBED7F28398A}"/>
+    <hyperlink ref="L36" r:id="rId87" xr:uid="{1CE4A09E-54A0-48F3-A4A6-B8B36372A401}"/>
+    <hyperlink ref="M36" r:id="rId88" xr:uid="{B5E31113-CFB8-47B7-9283-5C11ACE7F80E}"/>
+    <hyperlink ref="L37" r:id="rId89" xr:uid="{305D48E9-7441-4BD0-BBD1-778DF4A09E76}"/>
+    <hyperlink ref="M37" r:id="rId90" xr:uid="{14A7D466-3A55-4A91-A924-0441EECBF7CB}"/>
+    <hyperlink ref="L38" r:id="rId91" xr:uid="{F21ED791-8118-4F25-8482-20FC746B7231}"/>
+    <hyperlink ref="M38" r:id="rId92" xr:uid="{F0C63DCE-BB0D-455A-84B6-F6C392C1C2ED}"/>
+    <hyperlink ref="M39" r:id="rId93" xr:uid="{37D3D4E7-C5B1-4EB5-A22F-F501A2DDD3E9}"/>
+    <hyperlink ref="L39" r:id="rId94" xr:uid="{FE3593FC-944C-461A-AF86-1BC0489D9533}"/>
+    <hyperlink ref="L41" r:id="rId95" xr:uid="{1EFB9DFB-F269-4E6A-AA6F-3ABDE73DA1F2}"/>
+    <hyperlink ref="M41" r:id="rId96" xr:uid="{BF3E224F-EFBE-423E-B6C4-A0D1E48692CE}"/>
+    <hyperlink ref="L43" r:id="rId97" xr:uid="{5FCA3BDF-C520-41B1-A611-F8B0AF04D8FA}"/>
+    <hyperlink ref="M43" r:id="rId98" xr:uid="{CEB24B22-9C2F-4E5F-B87F-F8DD7A6A5BDB}"/>
+    <hyperlink ref="L45" r:id="rId99" xr:uid="{FD5B6AAA-18DB-4306-9CB2-CE94103D8BF6}"/>
+    <hyperlink ref="M45" r:id="rId100" xr:uid="{FE957091-1FF0-4A4A-9F69-FA81A1EC2F97}"/>
+    <hyperlink ref="L46" r:id="rId101" xr:uid="{83027471-B331-4E97-80CD-218D31A8FE24}"/>
+    <hyperlink ref="M46" r:id="rId102" xr:uid="{B6F2C751-1BB6-49D4-9EBA-432325A058D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0981DBA5-C5EE-4F98-8C61-3A50D8D9D4CD}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2602,9 +2900,10 @@
     <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="63.734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="84.47265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2612,7 +2911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2919,7 @@
         <v>45304.738252314812</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2644,12 +2943,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2683,8 +2982,14 @@
       <c r="K9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2713,11 +3018,17 @@
       <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2743,11 +3054,17 @@
       <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2773,11 +3090,17 @@
       <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2806,11 +3129,17 @@
       <c r="J13" t="s">
         <v>36</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2824,11 +3153,11 @@
         <v>40</v>
       </c>
       <c r="G14" s="1">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="H14" s="1">
         <f>B14*G14</f>
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="s">
         <v>41</v>
@@ -2836,17 +3165,37 @@
       <c r="J14" t="s">
         <v>42</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="H15" s="1">
         <f>SUM(H10:H14)</f>
-        <v>21.410000000000004</v>
+        <v>21.300000000000004</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{D2582110-7F77-4510-9805-CA866C124688}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{F3479E44-B6C9-4CB8-BCF5-4C8E189DAB15}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{DF398391-79B8-4C70-AB5A-4BC50F740E6A}"/>
+    <hyperlink ref="K13" r:id="rId4" xr:uid="{218C45D3-E968-4A5F-85ED-7A6E06EA02E4}"/>
+    <hyperlink ref="K14" r:id="rId5" xr:uid="{29C3AF94-6888-4125-802D-7A491D164AAC}"/>
+    <hyperlink ref="L10" r:id="rId6" xr:uid="{E415F160-C09E-486B-B32E-162AD3E15B89}"/>
+    <hyperlink ref="M10" r:id="rId7" xr:uid="{486B39AE-FA8C-4126-958E-FB6005906654}"/>
+    <hyperlink ref="L11" r:id="rId8" xr:uid="{8A5DD021-5050-4A16-BC5C-5A21D3A4E55E}"/>
+    <hyperlink ref="M13" r:id="rId9" xr:uid="{C2117143-9FC8-4B92-90A1-3AE10A535DD4}"/>
+    <hyperlink ref="L13" r:id="rId10" xr:uid="{20E05C56-ED6F-4726-AF14-A638720411BE}"/>
+    <hyperlink ref="L14" r:id="rId11" xr:uid="{A8B97C7D-2915-481C-A3D6-7600284FDD2A}"/>
+    <hyperlink ref="M14" r:id="rId12" xr:uid="{CEB2AA93-CC13-4CAB-AAA1-0226A472F30B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM-nixieAccurateClock.xlsx
+++ b/BOM-nixieAccurateClock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7175D27D-244A-4589-A467-8792F1106101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB4AFFD-7FAB-4C6E-90E0-0756BD50682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,12 +463,6 @@
     <t>https://www.vishay.com/docs/30122/wslp.pdf</t>
   </si>
   <si>
-    <t>Resistor_THT:R_Axial_DIN0617_L17.0mm_D6.0mm_P20.32mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.te.com/usa-en/product-8-2176412-0.datasheet.pdf</t>
-  </si>
-  <si>
     <t>Device:R_Potentiometer</t>
   </si>
   <si>
@@ -619,9 +613,6 @@
     <t>RMCF0603FT1M00</t>
   </si>
   <si>
-    <t>ROX5SSJ10K</t>
-  </si>
-  <si>
     <t>3266Z-1-104LF</t>
   </si>
   <si>
@@ -826,12 +817,6 @@
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603FT1M00/1761036</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/ROX5SSJ10K?qs=gZXFycFWdAPK2TCKEiyMYg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/ROX5SSJ10K/9926250</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/bourns-inc/3266Z-1-104LF/3722105</t>
   </si>
   <si>
@@ -878,6 +863,21 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TXB0108PWR?qs=oFXvjAmG9EgEUWGWzOVFCA%3D%3D</t>
+  </si>
+  <si>
+    <t>352010KJT</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_2512_6332Metric</t>
+  </si>
+  <si>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=1773139&amp;DocType=DS&amp;DocLang=English</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/352010KJT/2364839</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/352010KJT?qs=DDevMFOh4ssnVH2d0oCe7g%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59D120-68A1-4021-9F61-63CF243C8D9C}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1342,10 +1342,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1381,10 +1381,10 @@
         <v>113</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1420,10 +1420,10 @@
         <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1440,7 +1440,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1459,10 +1459,10 @@
         <v>116</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1479,7 +1479,7 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G13" s="1">
         <v>1.03</v>
@@ -1498,10 +1498,10 @@
         <v>119</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1518,7 +1518,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -1537,10 +1537,10 @@
         <v>120</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1573,10 +1573,10 @@
         <v>123</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1587,13 +1587,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -1612,10 +1612,10 @@
         <v>126</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1651,10 +1651,10 @@
         <v>129</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1671,7 +1671,7 @@
         <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" s="1">
         <v>0.81</v>
@@ -1690,10 +1690,10 @@
         <v>131</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1710,7 +1710,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G19" s="1">
         <v>0.38</v>
@@ -1729,10 +1729,10 @@
         <v>134</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1749,7 +1749,7 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G20" s="1">
         <v>4.07</v>
@@ -1768,10 +1768,10 @@
         <v>136</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1807,10 +1807,10 @@
         <v>139</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1827,7 +1827,7 @@
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
@@ -1846,10 +1846,10 @@
         <v>37</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1866,7 +1866,7 @@
         <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
@@ -1885,10 +1885,10 @@
         <v>141</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1905,7 +1905,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G24" s="1">
         <v>0.1</v>
@@ -1924,10 +1924,10 @@
         <v>37</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1944,7 +1944,7 @@
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G25" s="1">
         <v>0.74</v>
@@ -1963,10 +1963,10 @@
         <v>142</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1983,7 +1983,7 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="1">
         <v>0.1</v>
@@ -2002,10 +2002,10 @@
         <v>37</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2022,7 +2022,7 @@
         <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G27" s="1">
         <v>0.1</v>
@@ -2041,10 +2041,10 @@
         <v>37</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2061,7 +2061,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G28" s="1">
         <v>0.1</v>
@@ -2080,10 +2080,10 @@
         <v>141</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2100,7 +2100,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G29" s="1">
         <v>0.1</v>
@@ -2119,10 +2119,10 @@
         <v>37</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2139,7 +2139,7 @@
         <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G30" s="1">
         <v>0.1</v>
@@ -2158,10 +2158,10 @@
         <v>141</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2178,7 +2178,7 @@
         <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G31" s="1">
         <v>0.1</v>
@@ -2197,10 +2197,10 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2217,7 +2217,7 @@
         <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G32" s="1">
         <v>0.1</v>
@@ -2236,10 +2236,10 @@
         <v>37</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2256,7 +2256,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -2275,10 +2275,10 @@
         <v>37</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2295,7 +2295,7 @@
         <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G34" s="1">
         <v>0.1</v>
@@ -2314,10 +2314,10 @@
         <v>141</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2334,29 +2334,29 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="G35" s="1">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="I35" t="s">
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2373,7 +2373,7 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G36" s="1">
         <v>2.13</v>
@@ -2383,19 +2383,19 @@
         <v>2.13</v>
       </c>
       <c r="I36" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" t="s">
+        <v>144</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J36" t="s">
-        <v>146</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="L36" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2412,7 +2412,7 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G37" s="1">
         <v>1.75</v>
@@ -2422,19 +2422,19 @@
         <v>1.75</v>
       </c>
       <c r="I37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J37" t="s">
-        <v>149</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="L37" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2461,19 +2461,19 @@
         <v>7.6</v>
       </c>
       <c r="I38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="L38" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2490,7 +2490,7 @@
         <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G39" s="1">
         <v>1.37</v>
@@ -2500,19 +2500,19 @@
         <v>1.37</v>
       </c>
       <c r="I39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" t="s">
+        <v>153</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J39" t="s">
-        <v>155</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2536,19 +2536,19 @@
         <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2572,19 +2572,19 @@
         <v>0.97</v>
       </c>
       <c r="I41" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J41" t="s">
-        <v>160</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="L41" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2608,19 +2608,19 @@
         <v>27.8</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2634,7 +2634,7 @@
         <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E43" t="s">
         <v>107</v>
@@ -2647,19 +2647,19 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="I43" t="s">
+        <v>162</v>
+      </c>
+      <c r="J43" t="s">
+        <v>163</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J43" t="s">
-        <v>165</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G44" s="1">
         <f>'IN-14 daughter board'!H15</f>
@@ -2681,16 +2681,16 @@
         <v>127.80000000000003</v>
       </c>
       <c r="I44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2707,7 +2707,7 @@
         <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G45" s="1">
         <v>5.93</v>
@@ -2717,19 +2717,19 @@
         <v>5.93</v>
       </c>
       <c r="I45" t="s">
+        <v>167</v>
+      </c>
+      <c r="J45" t="s">
+        <v>168</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J45" t="s">
-        <v>170</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2740,10 +2740,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E46" t="s">
         <v>110</v>
@@ -2756,25 +2756,25 @@
         <v>3.3</v>
       </c>
       <c r="I46" t="s">
+        <v>170</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J46" t="s">
-        <v>173</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="H47" s="1">
         <f>SUM(H10:H46)</f>
-        <v>245.14000000000004</v>
+        <v>244.97000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2983,10 +2983,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3022,10 +3022,10 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3058,10 +3058,10 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3094,10 +3094,10 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3133,10 +3133,10 @@
         <v>37</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3169,10 +3169,10 @@
         <v>43</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">

--- a/BOM-nixieAccurateClock.xlsx
+++ b/BOM-nixieAccurateClock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB4AFFD-7FAB-4C6E-90E0-0756BD50682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE7D8D-E522-4885-81F8-181FFD9EBB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,12 +484,6 @@
     <t>Connector:TestPoint</t>
   </si>
   <si>
-    <t>TestPoint:TestPoint_Loop_D2.54mm_Drill1.5mm_Beaded</t>
-  </si>
-  <si>
-    <t>https://www.keyelco.com/userAssets/file/M65p56.pdf</t>
-  </si>
-  <si>
     <t>Interface_Expansion:MCP23008-xSO</t>
   </si>
   <si>
@@ -829,12 +823,6 @@
     <t>https://www.mouser.com/ProductDetail/TE-Connectivity-PB/ADE0804?qs=k5V78Jg%2Feq6GvBeNB1YtWA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/keystone-electronics/5001/255327</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Keystone-Electronics/5001?qs=q0tsjPZWdm%2FW0vdr%2FwowKg%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP23008-E-SO?qs=Sez7gRs8XSWum74ZwQXTLw%3D%3D</t>
   </si>
   <si>
@@ -878,6 +866,18 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/352010KJT?qs=DDevMFOh4ssnVH2d0oCe7g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/5019/3907343</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Keystone-Electronics/5019?qs=wOxb8XianXjjCAsb90Ilzw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/215/019-743690.pdf</t>
+  </si>
+  <si>
+    <t>00_lib:TestPoint_Keystone_5019_Minature</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59D120-68A1-4021-9F61-63CF243C8D9C}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="136" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1267,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1342,10 +1344,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1381,10 +1383,10 @@
         <v>113</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1395,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1420,10 +1422,10 @@
         <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1440,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1459,10 +1461,10 @@
         <v>116</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1479,7 +1481,7 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G13" s="1">
         <v>1.03</v>
@@ -1498,10 +1500,10 @@
         <v>119</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1518,7 +1520,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -1537,10 +1539,10 @@
         <v>120</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1573,10 +1575,10 @@
         <v>123</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1587,13 +1589,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -1612,10 +1614,10 @@
         <v>126</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1651,10 +1653,10 @@
         <v>129</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1671,7 +1673,7 @@
         <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G18" s="1">
         <v>0.81</v>
@@ -1690,10 +1692,10 @@
         <v>131</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1710,7 +1712,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G19" s="1">
         <v>0.38</v>
@@ -1729,10 +1731,10 @@
         <v>134</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1749,7 +1751,7 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G20" s="1">
         <v>4.07</v>
@@ -1768,10 +1770,10 @@
         <v>136</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1807,10 +1809,10 @@
         <v>139</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1827,7 +1829,7 @@
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
@@ -1846,10 +1848,10 @@
         <v>37</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1866,7 +1868,7 @@
         <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
@@ -1885,10 +1887,10 @@
         <v>141</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1905,7 +1907,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1">
         <v>0.1</v>
@@ -1924,10 +1926,10 @@
         <v>37</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1944,7 +1946,7 @@
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G25" s="1">
         <v>0.74</v>
@@ -1963,10 +1965,10 @@
         <v>142</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1983,7 +1985,7 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G26" s="1">
         <v>0.1</v>
@@ -2002,10 +2004,10 @@
         <v>37</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2022,7 +2024,7 @@
         <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1">
         <v>0.1</v>
@@ -2041,10 +2043,10 @@
         <v>37</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2061,7 +2063,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1">
         <v>0.1</v>
@@ -2080,10 +2082,10 @@
         <v>141</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2100,7 +2102,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G29" s="1">
         <v>0.1</v>
@@ -2119,10 +2121,10 @@
         <v>37</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2139,7 +2141,7 @@
         <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="1">
         <v>0.1</v>
@@ -2158,10 +2160,10 @@
         <v>141</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2178,7 +2180,7 @@
         <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G31" s="1">
         <v>0.1</v>
@@ -2197,10 +2199,10 @@
         <v>37</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2217,7 +2219,7 @@
         <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1">
         <v>0.1</v>
@@ -2236,10 +2238,10 @@
         <v>37</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2256,7 +2258,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -2275,10 +2277,10 @@
         <v>37</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2295,7 +2297,7 @@
         <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G34" s="1">
         <v>0.1</v>
@@ -2314,10 +2316,10 @@
         <v>141</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2334,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G35" s="1">
         <v>0.43</v>
@@ -2347,16 +2349,16 @@
         <v>35</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2373,7 +2375,7 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G36" s="1">
         <v>2.13</v>
@@ -2392,10 +2394,10 @@
         <v>145</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2412,7 +2414,7 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G37" s="1">
         <v>1.75</v>
@@ -2431,10 +2433,10 @@
         <v>148</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2451,29 +2453,29 @@
         <v>98</v>
       </c>
       <c r="E38">
-        <v>5001</v>
+        <v>5019</v>
       </c>
       <c r="G38" s="1">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="I38" t="s">
         <v>149</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2490,7 +2492,7 @@
         <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G39" s="1">
         <v>1.37</v>
@@ -2500,19 +2502,19 @@
         <v>1.37</v>
       </c>
       <c r="I39" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J39" t="s">
-        <v>153</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2536,19 +2538,19 @@
         <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2572,19 +2574,19 @@
         <v>0.97</v>
       </c>
       <c r="I41" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J41" t="s">
-        <v>158</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="L41" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2608,19 +2610,19 @@
         <v>27.8</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2634,7 +2636,7 @@
         <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
         <v>107</v>
@@ -2647,19 +2649,19 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="I43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J43" t="s">
-        <v>163</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2670,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G44" s="1">
         <f>'IN-14 daughter board'!H15</f>
@@ -2681,16 +2683,16 @@
         <v>127.80000000000003</v>
       </c>
       <c r="I44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2707,7 +2709,7 @@
         <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G45" s="1">
         <v>5.93</v>
@@ -2717,19 +2719,19 @@
         <v>5.93</v>
       </c>
       <c r="I45" t="s">
+        <v>165</v>
+      </c>
+      <c r="J45" t="s">
+        <v>166</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J45" t="s">
-        <v>168</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -2740,10 +2742,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
         <v>110</v>
@@ -2756,25 +2758,25 @@
         <v>3.3</v>
       </c>
       <c r="I46" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46" t="s">
+        <v>169</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J46" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="H47" s="1">
         <f>SUM(H10:H46)</f>
-        <v>244.97000000000003</v>
+        <v>243.97000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2983,10 +2985,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3022,10 +3024,10 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3058,10 +3060,10 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3094,10 +3096,10 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3133,10 +3135,10 @@
         <v>37</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -3169,10 +3171,10 @@
         <v>43</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">

--- a/BOM-nixieAccurateClock.xlsx
+++ b/BOM-nixieAccurateClock.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE7D8D-E522-4885-81F8-181FFD9EBB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6176E-D5BF-432E-9819-DA187A99C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nixie Accurate Clock" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="281">
   <si>
     <t>Price</t>
   </si>
@@ -136,9 +136,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>33k</t>
-  </si>
-  <si>
     <t>Device:R</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>https://www.yageo.com/upload/media/product/app/datasheet/rchip/pyu-rc_group_51_rohs_l.pdf</t>
   </si>
   <si>
-    <t>RC1206JR-0733KL</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -652,12 +646,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC1206JR-0733KL?qs=4sq2y2bXwtTBbhYRyjZ6aQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/yageo/RC1206JR-0733KL/729282</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/microchip-technology/HV509K6-G/4902492</t>
   </si>
   <si>
@@ -878,6 +866,15 @@
   </si>
   <si>
     <t>00_lib:TestPoint_Keystone_5019_Minature</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC1206JR-0727KL?qs=CteSnpDdeuBg3%2FC0aG6GFQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC1206JR-0727KL/729262</t>
+  </si>
+  <si>
+    <t>RC1206JR-0727KL</t>
   </si>
 </sst>
 </file>
@@ -949,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -989,7 +986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1095,7 +1092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1237,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1247,32 +1244,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59D120-68A1-4021-9F61-63CF243C8D9C}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="136" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.68359375" customWidth="1"/>
-    <col min="4" max="4" width="15.20703125" customWidth="1"/>
-    <col min="5" max="5" width="17.68359375" customWidth="1"/>
-    <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.47265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.1015625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1275,7 @@
         <v>45304.804212962961</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1304,12 +1299,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1332,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1344,13 +1339,13 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1358,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>103</v>
@@ -1374,22 +1369,22 @@
         <v>1.22</v>
       </c>
       <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1397,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1413,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1422,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1436,13 +1431,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1452,22 +1447,22 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1475,13 +1470,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G13" s="1">
         <v>1.03</v>
@@ -1491,22 +1486,22 @@
         <v>2.06</v>
       </c>
       <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1514,13 +1509,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -1530,22 +1525,22 @@
         <v>0.1</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1553,10 +1548,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>0.27</v>
@@ -1566,22 +1561,22 @@
         <v>0.81</v>
       </c>
       <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1589,13 +1584,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -1605,22 +1600,22 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1628,10 +1623,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>132289</v>
@@ -1644,22 +1639,22 @@
         <v>7.55</v>
       </c>
       <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="L17" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1667,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G18" s="1">
         <v>0.81</v>
@@ -1686,19 +1681,19 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1706,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G19" s="1">
         <v>0.38</v>
@@ -1722,22 +1717,22 @@
         <v>0.38</v>
       </c>
       <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1745,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G20" s="1">
         <v>4.07</v>
@@ -1761,22 +1756,22 @@
         <v>4.07</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1784,13 +1779,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1">
         <v>0.55000000000000004</v>
@@ -1800,22 +1795,22 @@
         <v>2.75</v>
       </c>
       <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J21" t="s">
-        <v>138</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L21" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1823,13 +1818,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
@@ -1839,22 +1834,22 @@
         <v>0.4</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1862,13 +1857,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
@@ -1878,22 +1873,22 @@
         <v>0.2</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1901,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G24" s="1">
         <v>0.1</v>
@@ -1917,22 +1912,22 @@
         <v>0.1</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
@@ -1940,13 +1935,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G25" s="1">
         <v>0.74</v>
@@ -1956,22 +1951,22 @@
         <v>1.48</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="L25" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
@@ -1979,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G26" s="1">
         <v>0.1</v>
@@ -1995,22 +1990,22 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
@@ -2018,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1">
         <v>0.1</v>
@@ -2034,22 +2029,22 @@
         <v>0.1</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19</v>
       </c>
@@ -2057,13 +2052,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G28" s="1">
         <v>0.1</v>
@@ -2073,22 +2068,22 @@
         <v>0.2</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
@@ -2096,13 +2091,13 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1">
         <v>0.1</v>
@@ -2112,22 +2107,22 @@
         <v>0.2</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>21</v>
       </c>
@@ -2135,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G30" s="1">
         <v>0.1</v>
@@ -2151,22 +2146,22 @@
         <v>0.1</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>22</v>
       </c>
@@ -2174,13 +2169,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G31" s="1">
         <v>0.1</v>
@@ -2190,22 +2185,22 @@
         <v>0.1</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>23</v>
       </c>
@@ -2213,13 +2208,13 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G32" s="1">
         <v>0.1</v>
@@ -2229,22 +2224,22 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24</v>
       </c>
@@ -2252,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -2268,22 +2263,22 @@
         <v>0.1</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2291,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G34" s="1">
         <v>0.1</v>
@@ -2307,22 +2302,22 @@
         <v>0.1</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>26</v>
       </c>
@@ -2330,13 +2325,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G35" s="1">
         <v>0.43</v>
@@ -2346,22 +2341,22 @@
         <v>0.43</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>27</v>
       </c>
@@ -2369,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G36" s="1">
         <v>2.13</v>
@@ -2385,22 +2380,22 @@
         <v>2.13</v>
       </c>
       <c r="I36" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J36" t="s">
-        <v>144</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="L36" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>28</v>
       </c>
@@ -2408,13 +2403,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G37" s="1">
         <v>1.75</v>
@@ -2424,22 +2419,22 @@
         <v>1.75</v>
       </c>
       <c r="I37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J37" t="s">
-        <v>147</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="L37" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>29</v>
       </c>
@@ -2447,10 +2442,10 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E38">
         <v>5019</v>
@@ -2463,22 +2458,22 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J38" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30</v>
       </c>
@@ -2486,13 +2481,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G39" s="1">
         <v>1.37</v>
@@ -2502,22 +2497,22 @@
         <v>1.37</v>
       </c>
       <c r="I39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" t="s">
+        <v>149</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J39" t="s">
-        <v>151</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>31</v>
       </c>
@@ -2525,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G40" s="1">
         <v>35</v>
@@ -2538,22 +2533,22 @@
         <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>32</v>
       </c>
@@ -2561,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G41" s="1">
         <v>0.97</v>
@@ -2574,22 +2569,22 @@
         <v>0.97</v>
       </c>
       <c r="I41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J41" t="s">
-        <v>156</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="L41" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>33</v>
       </c>
@@ -2597,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G42" s="1">
         <v>27.8</v>
@@ -2610,22 +2605,22 @@
         <v>27.8</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -2633,13 +2628,13 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G43" s="1">
         <v>2.1800000000000002</v>
@@ -2649,22 +2644,22 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="I43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" t="s">
+        <v>159</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J43" t="s">
-        <v>161</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="L43" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -2672,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G44" s="1">
         <f>'IN-14 daughter board'!H15</f>
@@ -2683,19 +2678,19 @@
         <v>127.80000000000003</v>
       </c>
       <c r="I44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>36</v>
       </c>
@@ -2703,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G45" s="1">
         <v>5.93</v>
@@ -2719,22 +2714,22 @@
         <v>5.93</v>
       </c>
       <c r="I45" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J45" t="s">
-        <v>166</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="L45" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>37</v>
       </c>
@@ -2742,13 +2737,13 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1">
         <v>1.65</v>
@@ -2758,22 +2753,22 @@
         <v>3.3</v>
       </c>
       <c r="I46" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" t="s">
+        <v>167</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J46" t="s">
-        <v>169</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H47" s="1">
         <f>SUM(H10:H46)</f>
         <v>243.97000000000003</v>
@@ -2894,26 +2889,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.68359375" customWidth="1"/>
-    <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.47265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.1015625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2921,7 +2916,7 @@
         <v>45304.738252314812</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2929,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2937,7 +2932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2945,12 +2940,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2958,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2973,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -2985,13 +2980,13 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3024,13 +3019,13 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3060,13 +3055,13 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3096,13 +3091,13 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3113,10 +3108,10 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -3126,22 +3121,22 @@
         <v>0.1</v>
       </c>
       <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -3149,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1">
         <v>2.78</v>
@@ -3162,22 +3157,22 @@
         <v>2.78</v>
       </c>
       <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="1">
         <f>SUM(H10:H14)</f>
         <v>21.300000000000004</v>

--- a/BOM-nixieAccurateClock.xlsx
+++ b/BOM-nixieAccurateClock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6176E-D5BF-432E-9819-DA187A99C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB6C9D5-8ECB-499D-A34F-C170D810D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="25644" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nixie Accurate Clock" sheetId="5" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>BSP88</t>
   </si>
   <si>
-    <t>R1, R2, R10, R13</t>
-  </si>
-  <si>
     <t>4.7k</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>10M</t>
   </si>
   <si>
-    <t>R14, R15</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -382,12 +376,6 @@
     <t>Device:C_Polarized</t>
   </si>
   <si>
-    <t>Capacitor_THT:CP_Radial_D10.0mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.nichicon.co.jp/english/products/pdfs/e-uvc.pdf</t>
-  </si>
-  <si>
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C102K5RACTU</t>
   </si>
   <si>
@@ -469,12 +457,6 @@
     <t>Switch:SW_DIP_x08</t>
   </si>
   <si>
-    <t>Button_Switch_THT:SW_DIP_SPSTx08_Slide_6.7x21.88mm_W7.62mm_P2.54mm_LowProfile</t>
-  </si>
-  <si>
-    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=ADE_ADP_ADF_Datasheet&amp;DocType=Data+Sheet&amp;DocLang=English&amp;DocFormat=pdf&amp;PartCntxt=1825057-7</t>
-  </si>
-  <si>
     <t>Connector:TestPoint</t>
   </si>
   <si>
@@ -544,9 +526,6 @@
     <t>CL10A105KA8NNNC</t>
   </si>
   <si>
-    <t>UVC2G100MPD1TD</t>
-  </si>
-  <si>
     <t>C0603C102K5RAC7867</t>
   </si>
   <si>
@@ -604,9 +583,6 @@
     <t>3266Z-1-104LF</t>
   </si>
   <si>
-    <t>1825057-7</t>
-  </si>
-  <si>
     <t>ADC0820BCWMX/NOPB</t>
   </si>
   <si>
@@ -658,12 +634,6 @@
     <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL10A105KA8NNNC?qs=hqM3L16%252BxldY%252BnK4KzDJVg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Nichicon/UVC2G100MPD1TD?qs=dHDuPHwQO7%2FySlLjjH7nrA%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/nichicon/UVC2G100MPD1TD/4312415</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/kemet/C0603C102K5RAC7867/411081</t>
   </si>
   <si>
@@ -805,12 +775,6 @@
     <t>https://www.mouser.com/ProductDetail/Bourns/3266Z-1-104LF?qs=%252B8v4bwhISUIlrQ43joPBoQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/te-connectivity-alcoswitch-switches/1825057-7/969176</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-PB/ADE0804?qs=k5V78Jg%2Feq6GvBeNB1YtWA%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Microchip-Technology/MCP23008-E-SO?qs=Sez7gRs8XSWum74ZwQXTLw%3D%3D</t>
   </si>
   <si>
@@ -875,6 +839,42 @@
   </si>
   <si>
     <t>RC1206JR-0727KL</t>
+  </si>
+  <si>
+    <t>ULR2E100MNL1GS</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_8x10</t>
+  </si>
+  <si>
+    <t>https://www.nichicon.co.jp/english/series_items/catalog_pdf/e-ulr.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nichicon/ULR2E100MNL1GS/3664123</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Nichicon/ULR2E100MNL1GS?qs=aoAypCcaRa8pBYU9738QBQ%3D%3D</t>
+  </si>
+  <si>
+    <t>219-8MST</t>
+  </si>
+  <si>
+    <t>Button_Switch_SMD:SW_DIP_SPSTx08_Slide_6.7x21.88mm_W8.61mm_P2.54mm_LowProfile</t>
+  </si>
+  <si>
+    <t>https://www.ctscorp.com/wp-content/uploads/219.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cts-electrocomponents/219-8MST/223209</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CTS-Electronic-Components/219-8MST?qs=qNzHFtQhdJ%252B8jOs%2FDCRqeg%3D%3D</t>
+  </si>
+  <si>
+    <t>R10, R13</t>
+  </si>
+  <si>
+    <t>R1, R2, R14, R15</t>
   </si>
 </sst>
 </file>
@@ -946,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -986,7 +986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1092,7 +1092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1234,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1339,10 +1339,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1369,19 +1369,19 @@
         <v>1.22</v>
       </c>
       <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1417,10 +1417,10 @@
         <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1447,19 +1447,19 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1476,29 +1476,29 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="G13" s="1">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -1525,19 +1525,19 @@
         <v>0.1</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1561,19 +1561,19 @@
         <v>0.81</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1584,13 +1584,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -1600,19 +1600,19 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1639,19 +1639,19 @@
         <v>7.55</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G18" s="1">
         <v>0.81</v>
@@ -1681,16 +1681,16 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G19" s="1">
         <v>0.38</v>
@@ -1717,19 +1717,19 @@
         <v>0.38</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G20" s="1">
         <v>4.07</v>
@@ -1756,19 +1756,19 @@
         <v>4.07</v>
       </c>
       <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1795,19 +1795,19 @@
         <v>2.75</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1815,38 +1815,38 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="s">
         <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1857,13 +1857,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
@@ -1876,16 +1876,16 @@
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1896,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
-        <v>71</v>
-      </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G24" s="1">
         <v>0.1</v>
@@ -1915,16 +1915,16 @@
         <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1935,13 +1935,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
         <v>72</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G25" s="1">
         <v>0.74</v>
@@ -1954,16 +1954,16 @@
         <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1">
         <v>0.1</v>
@@ -1993,16 +1993,16 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2013,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G27" s="1">
         <v>0.1</v>
@@ -2032,16 +2032,16 @@
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2052,13 +2052,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
         <v>77</v>
       </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1">
         <v>0.1</v>
@@ -2071,16 +2071,16 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2088,38 +2088,38 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G29" s="1">
         <v>0.1</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I29" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2130,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G30" s="1">
         <v>0.1</v>
@@ -2149,16 +2149,16 @@
         <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2169,13 +2169,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G31" s="1">
         <v>0.1</v>
@@ -2188,16 +2188,16 @@
         <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2208,13 +2208,13 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G32" s="1">
         <v>0.1</v>
@@ -2227,16 +2227,16 @@
         <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2247,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -2266,16 +2266,16 @@
         <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2286,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G34" s="1">
         <v>0.1</v>
@@ -2305,16 +2305,16 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2325,13 +2325,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G35" s="1">
         <v>0.43</v>
@@ -2344,16 +2344,16 @@
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2364,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1">
         <v>2.13</v>
@@ -2380,19 +2380,19 @@
         <v>2.13</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2403,35 +2403,35 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="G37" s="1">
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2442,10 +2442,10 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E38">
         <v>5019</v>
@@ -2458,19 +2458,19 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J38" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2484,10 +2484,10 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G39" s="1">
         <v>1.37</v>
@@ -2497,19 +2497,19 @@
         <v>1.37</v>
       </c>
       <c r="I39" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2520,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G40" s="1">
         <v>35</v>
@@ -2533,19 +2533,19 @@
         <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2556,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G41" s="1">
         <v>0.97</v>
@@ -2569,19 +2569,19 @@
         <v>0.97</v>
       </c>
       <c r="I41" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2592,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G42" s="1">
         <v>27.8</v>
@@ -2605,19 +2605,19 @@
         <v>27.8</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L42" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2628,13 +2628,13 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G43" s="1">
         <v>2.1800000000000002</v>
@@ -2644,19 +2644,19 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2667,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G44" s="1">
         <f>'IN-14 daughter board'!H15</f>
@@ -2678,16 +2678,16 @@
         <v>127.80000000000003</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J44" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L44" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2698,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G45" s="1">
         <v>5.93</v>
@@ -2714,19 +2714,19 @@
         <v>5.93</v>
       </c>
       <c r="I45" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2737,13 +2737,13 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G46" s="1">
         <v>1.65</v>
@@ -2753,25 +2753,25 @@
         <v>3.3</v>
       </c>
       <c r="I46" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H47" s="1">
         <f>SUM(H10:H46)</f>
-        <v>243.97000000000003</v>
+        <v>243.09000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2980,10 +2980,10 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3019,10 +3019,10 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3055,10 +3055,10 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -3091,10 +3091,10 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -3108,10 +3108,10 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -3130,10 +3130,10 @@
         <v>36</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3166,10 +3166,10 @@
         <v>41</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">

--- a/BOM-nixieAccurateClock.xlsx
+++ b/BOM-nixieAccurateClock.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB6C9D5-8ECB-499D-A34F-C170D810D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA2ED8F-E75F-4E4B-BEC9-795470856A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="25644" windowHeight="15588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nixie Accurate Clock" sheetId="5" r:id="rId1"/>
@@ -202,15 +202,9 @@
     <t>Conn_01x02_Pin</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>Conn_Coaxial</t>
   </si>
   <si>
-    <t>J9</t>
-  </si>
-  <si>
     <t>Conn_02x05_Odd_Even</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>SW_DIP_x08</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20</t>
-  </si>
-  <si>
     <t>TestPoint</t>
   </si>
   <si>
@@ -640,9 +631,6 @@
     <t>https://www.mouser.com/ProductDetail/KEMET/C0603C102K5RAC7867?qs=ASQIQ%252BJnMNGuy6cWhiGfpA%3D%3D</t>
   </si>
   <si>
-    <t>J1, J2, J3, J4, J6, J7, J8</t>
-  </si>
-  <si>
     <t>C1, C2, C3, C6, C14, C16, C17, C18, C19, C20</t>
   </si>
   <si>
@@ -875,6 +863,18 @@
   </si>
   <si>
     <t>R1, R2, R14, R15</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J7, J8, J9, J10</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17</t>
   </si>
 </sst>
 </file>
@@ -1246,28 +1246,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.68359375" customWidth="1"/>
+    <col min="4" max="4" width="15.20703125" customWidth="1"/>
+    <col min="5" max="5" width="17.68359375" customWidth="1"/>
+    <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.7890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.41796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>45304.804212962961</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1299,12 +1299,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1339,13 +1339,13 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1369,22 +1369,22 @@
         <v>1.22</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -1417,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1">
         <v>0.1</v>
@@ -1447,22 +1447,22 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G13" s="1">
         <v>0.99</v>
@@ -1486,22 +1486,22 @@
         <v>1.98</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G14" s="1">
         <v>0.1</v>
@@ -1525,22 +1525,22 @@
         <v>0.1</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1561,61 +1561,61 @@
         <v>0.81</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1623,10 +1623,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
       </c>
       <c r="E17">
         <v>132289</v>
@@ -1639,22 +1639,22 @@
         <v>7.55</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G18" s="1">
         <v>0.81</v>
@@ -1681,19 +1681,19 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1701,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G19" s="1">
         <v>0.38</v>
@@ -1717,22 +1717,22 @@
         <v>0.38</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1740,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G20" s="1">
         <v>4.07</v>
@@ -1756,22 +1756,22 @@
         <v>4.07</v>
       </c>
       <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" t="s">
         <v>126</v>
       </c>
-      <c r="J20" t="s">
-        <v>129</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1779,13 +1779,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1">
         <v>0.55000000000000004</v>
@@ -1795,22 +1795,22 @@
         <v>2.75</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1818,13 +1818,13 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G22" s="1">
         <v>0.1</v>
@@ -1837,19 +1837,19 @@
         <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1857,13 +1857,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G23" s="1">
         <v>0.1</v>
@@ -1876,19 +1876,19 @@
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1896,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="1">
         <v>0.1</v>
@@ -1915,19 +1915,19 @@
         <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>16</v>
       </c>
@@ -1935,13 +1935,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" s="1">
         <v>0.74</v>
@@ -1954,19 +1954,19 @@
         <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>17</v>
       </c>
@@ -1974,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G26" s="1">
         <v>0.1</v>
@@ -1993,19 +1993,19 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>18</v>
       </c>
@@ -2013,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G27" s="1">
         <v>0.1</v>
@@ -2032,19 +2032,19 @@
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>19</v>
       </c>
@@ -2052,13 +2052,13 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G28" s="1">
         <v>0.1</v>
@@ -2071,19 +2071,19 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>20</v>
       </c>
@@ -2091,13 +2091,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G29" s="1">
         <v>0.1</v>
@@ -2110,19 +2110,19 @@
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>21</v>
       </c>
@@ -2130,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G30" s="1">
         <v>0.1</v>
@@ -2149,19 +2149,19 @@
         <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>22</v>
       </c>
@@ -2169,13 +2169,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G31" s="1">
         <v>0.1</v>
@@ -2188,19 +2188,19 @@
         <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>23</v>
       </c>
@@ -2208,13 +2208,13 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G32" s="1">
         <v>0.1</v>
@@ -2227,19 +2227,19 @@
         <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>24</v>
       </c>
@@ -2247,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -2266,19 +2266,19 @@
         <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2286,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G34" s="1">
         <v>0.1</v>
@@ -2305,19 +2305,19 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>26</v>
       </c>
@@ -2325,13 +2325,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G35" s="1">
         <v>0.43</v>
@@ -2344,19 +2344,19 @@
         <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>27</v>
       </c>
@@ -2364,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G36" s="1">
         <v>2.13</v>
@@ -2380,22 +2380,22 @@
         <v>2.13</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>28</v>
       </c>
@@ -2403,13 +2403,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G37" s="1">
         <v>0.95</v>
@@ -2419,33 +2419,33 @@
         <v>0.95</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>29</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <v>5019</v>
@@ -2455,25 +2455,25 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>5.61</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>30</v>
       </c>
@@ -2484,10 +2484,10 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G39" s="1">
         <v>1.37</v>
@@ -2497,22 +2497,22 @@
         <v>1.37</v>
       </c>
       <c r="I39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>31</v>
       </c>
@@ -2520,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G40" s="1">
         <v>35</v>
@@ -2533,22 +2533,22 @@
         <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>32</v>
       </c>
@@ -2556,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G41" s="1">
         <v>0.97</v>
@@ -2569,22 +2569,22 @@
         <v>0.97</v>
       </c>
       <c r="I41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>33</v>
       </c>
@@ -2592,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G42" s="1">
         <v>27.8</v>
@@ -2605,22 +2605,22 @@
         <v>27.8</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>34</v>
       </c>
@@ -2628,13 +2628,13 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G43" s="1">
         <v>2.1800000000000002</v>
@@ -2644,22 +2644,22 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="I43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>35</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G44" s="1">
         <f>'IN-14 daughter board'!H15</f>
@@ -2678,19 +2678,19 @@
         <v>127.80000000000003</v>
       </c>
       <c r="I44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>36</v>
       </c>
@@ -2698,13 +2698,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G45" s="1">
         <v>5.93</v>
@@ -2714,22 +2714,22 @@
         <v>5.93</v>
       </c>
       <c r="I45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>37</v>
       </c>
@@ -2737,13 +2737,13 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G46" s="1">
         <v>1.65</v>
@@ -2753,25 +2753,25 @@
         <v>3.3</v>
       </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="H47" s="1">
         <f>SUM(H10:H46)</f>
-        <v>243.09000000000003</v>
+        <v>242.30000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2889,18 +2889,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="84.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.68359375" customWidth="1"/>
+    <col min="9" max="9" width="35.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.7890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.41796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>45304.738252314812</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2940,12 +2940,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2980,13 +2980,13 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3019,13 +3019,13 @@
         <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3055,13 +3055,13 @@
         <v>26</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3091,13 +3091,13 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3108,10 +3108,10 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G13" s="1">
         <v>0.1</v>
@@ -3130,13 +3130,13 @@
         <v>36</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5</v>
       </c>
@@ -3166,13 +3166,13 @@
         <v>41</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="H15" s="1">
         <f>SUM(H10:H14)</f>
         <v>21.300000000000004</v>
